--- a/数据表/Scene.xlsx
+++ b/数据表/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>StressTest</t>
+  </si>
+  <si>
+    <t>GameplayA</t>
   </si>
 </sst>
 </file>
@@ -1225,13 +1228,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -1335,6 +1338,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/数据表/Scene.xlsx
+++ b/数据表/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>Main</t>
-  </si>
-  <si>
-    <t>压力测试场景</t>
-  </si>
-  <si>
-    <t>StressTest</t>
   </si>
   <si>
     <t>GameplayA</t>
@@ -1228,13 +1222,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -1328,24 +1322,10 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>

--- a/数据表/Scene.xlsx
+++ b/数据表/Scene.xlsx
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
